--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_de.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/productImportSchema_de.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA67900-5BF3-594C-A839-F6840993B00F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,21 +25,20 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -44,23 +48,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Pole wymagane. Numer musi być unikalny - nie może być dwóch produktów o takim samym numerze.</t>
+            <family val="2"/>
+          </rPr>
+          <t>Pole wymagane. Numer musi być unikalny - nie może być dwóch produktów o takim samym numerze.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -70,23 +72,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Pole wymagane</t>
+            <family val="2"/>
+          </rPr>
+          <t>Pole wymagane</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -96,10 +96,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Jeśli chcesz przypisz produkt do jednego z możliwych typów:
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli chcesz przypisz produkt do jednego z możliwych typów:
 - surowiec
 - półprodukt
 - finalny produkt
@@ -107,16 +106,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -126,23 +124,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana wymagana. Użyj wartości jednostki zdefiniowanej w słowniku</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana wymagana. Użyj wartości jednostki zdefiniowanej w słowniku</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -152,23 +148,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Jeśli chcesz podać EANy dla produktów, pamiętaj, że dany kod może być przypisany tylko do 1 produktu</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli chcesz podać EANy dla produktów, pamiętaj, że dany kod może być przypisany tylko do 1 produktu</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -178,23 +172,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Jeśli chcesz przypisz produkt do kategorii, wpisując wartość ze słownika kategorii</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli chcesz przypisz produkt do kategorii, wpisując wartość ze słownika kategorii</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -204,23 +196,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -230,23 +220,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Jeśli chcesz określić producenta produktu użyj numeru klienta zdefiniowanego w qcadoo</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli chcesz określić producenta produktu użyj numeru klienta zdefiniowanego w qcadoo</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -256,23 +244,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjolana. Jeśli chcesz przypisać produkt do asortymentu, użyj nazwy asortymentu zdefiniowanego w qcadoo</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjolana. Jeśli chcesz przypisać produkt do asortymentu, użyj nazwy asortymentu zdefiniowanego w qcadoo</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -282,23 +268,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Możesz przypisać produkt do rodziny - w tym celu zdefiniuj w qcadoo produkty - rodziny i użyj w pliku importu ich numeru</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Możesz przypisać produkt do rodziny - w tym celu zdefiniuj w qcadoo produkty - rodziny i użyj w pliku importu ich numeru</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -308,23 +292,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -334,23 +316,21 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">qcadoo MES:
 </t>
@@ -360,10 +340,9 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Musi być liczbą. Jako separatora części dziesiętnych użyj przecinka. Maksymalna liczba miejsc po przecinku to 5.</t>
         </r>
       </text>
     </comment>
@@ -374,53 +353,50 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t xml:space="preserve">Number</t>
+    <t>Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
+    <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Global type of material</t>
+    <t>Global type of material</t>
   </si>
   <si>
-    <t xml:space="preserve">Default unit</t>
+    <t>Default unit</t>
   </si>
   <si>
-    <t xml:space="preserve">EAN Code</t>
+    <t>EAN Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Category</t>
+    <t>Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Description</t>
+    <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer</t>
+    <t>Manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Assortment</t>
+    <t>Assortment</t>
   </si>
   <si>
-    <t xml:space="preserve">Belongs to family</t>
+    <t>Belongs to family</t>
   </si>
   <si>
-    <t xml:space="preserve">Nominal cost</t>
+    <t>Nominal cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Last purchase cost</t>
+    <t>Last purchase cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Average cost</t>
+    <t>Average cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -429,25 +405,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -455,19 +413,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,94 +435,1001 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDA00DD-2DD0-8746-9D9B-A37609F67F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C707EED-58EF-2D40-A6EF-95CCF39CA572}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6AB5657-213A-3D44-93CD-14D02CB5E3BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB83056-3745-CB4B-8AEA-C22E52E821E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512AE9B2-7FF5-C44D-8F40-1571C824560D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE6C61C-E8F8-B44D-B34A-2DBB3A8BDC31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508CE37C-44D4-5A4B-BBFC-68754E6CBBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2481DC60-D7AB-C943-B8E2-85D1C9DA5440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F860BB67-F11C-C64D-B5F2-0B7C4F070224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3448DBE1-0212-8A44-A9AE-AEC2F00B5EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA1F8BF-12E7-8F42-AC66-6DE44201907C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF891EE-87B0-E44C-9555-477D26FA7EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A917E15-3C0C-4141-9EE9-5027C5C61A9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.306976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.2"/>
+    <col min="1" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="13" width="20.83203125" customWidth="1"/>
+    <col min="14" max="1025" width="11.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,13 +1471,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>